--- a/Strategy_Stuff/Our_Pace.xlsx
+++ b/Strategy_Stuff/Our_Pace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Strategy_Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A00891-2B94-4E6B-9542-D5B28994C97B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DD657C-5791-427A-83E7-8750928355EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6828" yWindow="1236" windowWidth="18060" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Subjects</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>28th Aug 2020</t>
+  </si>
+  <si>
+    <t>3rd Aug 2020</t>
   </si>
 </sst>
 </file>
@@ -125,14 +128,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +419,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,26 +430,26 @@
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -468,7 +471,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
@@ -485,7 +488,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -502,6 +505,9 @@
       </c>
       <c r="B9" t="s">
         <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Strategy_Stuff/Our_Pace.xlsx
+++ b/Strategy_Stuff/Our_Pace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Strategy_Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DD657C-5791-427A-83E7-8750928355EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0BBE2B-EFCC-4304-95A4-426009FE967D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Subjects</t>
   </si>
@@ -82,7 +82,19 @@
     <t>28th Aug 2020</t>
   </si>
   <si>
-    <t>3rd Aug 2020</t>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>4th &amp; 5th Sep2020</t>
+  </si>
+  <si>
+    <t>3rd Sep 2020</t>
+  </si>
+  <si>
+    <t>6th Sep 2020</t>
+  </si>
+  <si>
+    <t>7th Sep 2020</t>
   </si>
 </sst>
 </file>
@@ -416,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +519,21 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Strategy_Stuff/Our_Pace.xlsx
+++ b/Strategy_Stuff/Our_Pace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Strategy_Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0BBE2B-EFCC-4304-95A4-426009FE967D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCF1088-045C-46B2-8758-B348DB0504F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Subjects</t>
   </si>
@@ -85,9 +85,6 @@
     <t>CD</t>
   </si>
   <si>
-    <t>4th &amp; 5th Sep2020</t>
-  </si>
-  <si>
     <t>3rd Sep 2020</t>
   </si>
   <si>
@@ -95,6 +92,24 @@
   </si>
   <si>
     <t>7th Sep 2020</t>
+  </si>
+  <si>
+    <t>16th Sep 2020</t>
+  </si>
+  <si>
+    <t>17th &amp; 18th Sep 2020</t>
+  </si>
+  <si>
+    <t>4th &amp; 5th Sep 2020</t>
+  </si>
+  <si>
+    <t>19th Sep 2020</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>20th Sep 2020</t>
   </si>
 </sst>
 </file>
@@ -428,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,13 +534,13 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -533,7 +548,24 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Strategy_Stuff/Our_Pace.xlsx
+++ b/Strategy_Stuff/Our_Pace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Strategy_Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCF1088-045C-46B2-8758-B348DB0504F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E34DAB-26FE-44D0-A62A-4999F0371054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Subjects</t>
   </si>
@@ -110,6 +110,25 @@
   </si>
   <si>
     <t>20th Sep 2020</t>
+  </si>
+  <si>
+    <t>20th Oct 2020</t>
+  </si>
+  <si>
+    <t>17th Oct 2020</t>
+  </si>
+  <si>
+    <t>18th &amp; 19th Oct 2020</t>
+  </si>
+  <si>
+    <t>OS &amp;
+DBMS</t>
+  </si>
+  <si>
+    <t>21st Oct 2020</t>
+  </si>
+  <si>
+    <t>Subject-Wise Test</t>
   </si>
 </sst>
 </file>
@@ -153,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -163,6 +182,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +479,7 @@
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -480,6 +505,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
@@ -567,11 +597,32 @@
       <c r="B13" t="s">
         <v>27</v>
       </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Strategy_Stuff/Our_Pace.xlsx
+++ b/Strategy_Stuff/Our_Pace.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Strategy_Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E34DAB-26FE-44D0-A62A-4999F0371054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3982D996-E06F-47B0-9077-B41924AA1696}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Subjects</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Subject-Wise Test</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>8th Apr 2021</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,6 +624,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
